--- a/output/1Y_P105_1VAL-D.xlsx
+++ b/output/1Y_P105_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>17.699</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>565.0037</v>
       </c>
-      <c r="G2" s="1">
-        <v>565.0037</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1327</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.699</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1327</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>18.0595</v>
       </c>
+      <c r="E3" s="1">
+        <v>565.0037</v>
+      </c>
       <c r="F3" s="1">
         <v>553.7252</v>
       </c>
-      <c r="G3" s="1">
-        <v>1118.7289</v>
-      </c>
       <c r="H3" s="1">
-        <v>20098.8589</v>
+        <v>10150.743</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8774</v>
+        <v>10150.743</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.699</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20098.8589</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0076</v>
+        <v>0.0151</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>18.696</v>
       </c>
+      <c r="E4" s="1">
+        <v>1118.7289</v>
+      </c>
       <c r="F4" s="1">
         <v>534.8738</v>
       </c>
-      <c r="G4" s="1">
-        <v>1653.6026</v>
-      </c>
       <c r="H4" s="1">
-        <v>30755.5206</v>
+        <v>20807.3499</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1422</v>
+        <v>20807.3499</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.8774</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30755.5206</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0218</v>
+        <v>0.0326</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>17.8704</v>
       </c>
+      <c r="E5" s="1">
+        <v>1653.6026</v>
+      </c>
       <c r="F5" s="1">
         <v>559.5846</v>
       </c>
-      <c r="G5" s="1">
-        <v>2213.1872</v>
-      </c>
       <c r="H5" s="1">
-        <v>39345.378</v>
+        <v>29397.2514</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0735</v>
+        <v>29397.2514</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.1422</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39345.378</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0346</v>
+        <v>-0.0458</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>17.5604</v>
       </c>
+      <c r="E6" s="1">
+        <v>2213.1872</v>
+      </c>
       <c r="F6" s="1">
         <v>569.4631000000001</v>
       </c>
-      <c r="G6" s="1">
-        <v>2782.6503</v>
-      </c>
       <c r="H6" s="1">
-        <v>48611.2312</v>
+        <v>38663.0523</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9685</v>
+        <v>38663.0523</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0735</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>48611.2312</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0149</v>
+        <v>-0.0186</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.4279</v>
       </c>
+      <c r="E7" s="1">
+        <v>2782.6503</v>
+      </c>
       <c r="F7" s="1">
         <v>573.7926</v>
       </c>
-      <c r="G7" s="1">
-        <v>3356.4429</v>
-      </c>
       <c r="H7" s="1">
-        <v>58192.3288</v>
+        <v>48244.1996</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.8761</v>
+        <v>48244.1996</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9685</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58192.3288</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0071</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.5932</v>
       </c>
+      <c r="E8" s="1">
+        <v>3356.4429</v>
+      </c>
       <c r="F8" s="1">
         <v>568.4014</v>
       </c>
-      <c r="G8" s="1">
-        <v>3924.8443</v>
-      </c>
       <c r="H8" s="1">
-        <v>68692.6254</v>
+        <v>58744.4636</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8351</v>
+        <v>58744.4636</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.8761</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>68692.6254</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0073</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>16.2741</v>
       </c>
+      <c r="E9" s="1">
+        <v>3924.8443</v>
+      </c>
       <c r="F9" s="1">
         <v>614.4733</v>
       </c>
-      <c r="G9" s="1">
-        <v>4539.3176</v>
-      </c>
       <c r="H9" s="1">
-        <v>73490.19070000001</v>
+        <v>63542.0522</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6238</v>
+        <v>63542.0522</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.8351</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>73490.19070000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.06610000000000001</v>
+        <v>-0.0757</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>17.0497</v>
       </c>
+      <c r="E10" s="1">
+        <v>4539.3176</v>
+      </c>
       <c r="F10" s="1">
         <v>586.5205999999999</v>
       </c>
-      <c r="G10" s="1">
-        <v>5125.8382</v>
-      </c>
       <c r="H10" s="1">
-        <v>86940.3671</v>
+        <v>76992.2742</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.5581</v>
+        <v>76992.2742</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6238</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>86940.3671</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0413</v>
+        <v>0.0469</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>17.4616</v>
       </c>
+      <c r="E11" s="1">
+        <v>5125.8382</v>
+      </c>
       <c r="F11" s="1">
         <v>572.6852</v>
       </c>
-      <c r="G11" s="1">
-        <v>5698.5234</v>
-      </c>
       <c r="H11" s="1">
-        <v>98989.05039999999</v>
+        <v>89040.9357</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.5484</v>
+        <v>89040.9357</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.5581</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>98989.05039999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0211</v>
+        <v>0.0235</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.8249</v>
       </c>
+      <c r="E12" s="1">
+        <v>5698.5234</v>
+      </c>
       <c r="F12" s="1">
         <v>561.013</v>
       </c>
-      <c r="G12" s="1">
-        <v>6259.5364</v>
-      </c>
       <c r="H12" s="1">
-        <v>110997.229</v>
+        <v>101049.0666</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5732</v>
+        <v>101049.0666</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.5484</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>110997.229</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0184</v>
+        <v>0.0203</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>16.8446</v>
       </c>
+      <c r="E13" s="1">
+        <v>6259.5364</v>
+      </c>
       <c r="F13" s="1">
         <v>593.6621</v>
       </c>
-      <c r="G13" s="1">
-        <v>6853.1985</v>
-      </c>
       <c r="H13" s="1">
-        <v>114841.1024</v>
+        <v>104892.9291</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5101</v>
+        <v>104892.9291</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.5732</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>114841.1024</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0509</v>
+        <v>-0.0554</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>16.4603</v>
       </c>
+      <c r="E14" s="1">
+        <v>6853.1985</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6853.1985</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6259.5364</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>112220.4393</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5101</v>
+        <v>112220.4393</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0509</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>112220.4393</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>112220.4393</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>112220.4393</v>
+        <v>102499.2824</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1011</v>
+        <v>-0.0233</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>17.699</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>565.0037</v>
       </c>
       <c r="G2" s="1">
-        <v>565.0037</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1327</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.699</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1327</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>18.0595</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>565.0037</v>
       </c>
       <c r="F3" s="1">
         <v>548.2226000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1113.2262</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10150.743</v>
       </c>
       <c r="I3" s="1">
-        <v>19900.6255</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8765</v>
+        <v>10150.743</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9900.6255</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.5231</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9900.6255</v>
       </c>
-      <c r="O3" s="1">
-        <v>99.3745</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20099.3745</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0076</v>
+        <v>0.0151</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>18.696</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1113.2262</v>
       </c>
       <c r="F4" s="1">
         <v>499.755</v>
       </c>
       <c r="G4" s="1">
-        <v>1612.9813</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20705.0062</v>
       </c>
       <c r="I4" s="1">
-        <v>29244.0456</v>
+        <v>99.3745</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1304</v>
+        <v>20804.3807</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19244.0456</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.2867</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9343.420099999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>755.9544</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30755.9544</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0218</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>17.8704</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1612.9813</v>
       </c>
       <c r="F5" s="1">
         <v>601.8866</v>
       </c>
       <c r="G5" s="1">
-        <v>2214.8679</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>39375.2567</v>
+        <v>28675.0972</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>755.9544</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0598</v>
+        <v>29431.0516</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.5991</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10755.9544</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39375.2567</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0339</v>
+        <v>-0.0446</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>17.5604</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2214.8679</v>
       </c>
       <c r="F6" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>2784.331</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>48640.5918</v>
+        <v>38692.413</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9576</v>
+        <v>38692.413</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0598</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>48640.5918</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0149</v>
+        <v>-0.0187</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.4279</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2784.331</v>
       </c>
       <c r="F7" s="1">
         <v>573.7926</v>
       </c>
       <c r="G7" s="1">
-        <v>3358.1236</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>58221.4677</v>
+        <v>48273.3386</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.8671</v>
+        <v>48273.3386</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9576</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58221.4677</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0071</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>17.5932</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3358.1236</v>
       </c>
       <c r="F8" s="1">
         <v>568.4014</v>
       </c>
       <c r="G8" s="1">
-        <v>3926.525</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>68722.0408</v>
+        <v>58773.879</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8275</v>
+        <v>58773.879</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.8671</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>68722.0408</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0073</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>16.2741</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3926.525</v>
       </c>
       <c r="F9" s="1">
         <v>614.4733</v>
       </c>
       <c r="G9" s="1">
-        <v>4540.9983</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>73517.4005</v>
+        <v>63569.2621</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6173</v>
+        <v>63569.2621</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.8275</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>73517.4005</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.06610000000000001</v>
+        <v>-0.0757</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>17.0497</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4540.9983</v>
       </c>
       <c r="F10" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G10" s="1">
-        <v>5127.5189</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>86968.87360000001</v>
+        <v>77020.7807</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.5523</v>
+        <v>77020.7807</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6173</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>86968.87360000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0413</v>
+        <v>0.0469</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>17.4616</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5127.5189</v>
       </c>
       <c r="F11" s="1">
         <v>572.6852</v>
       </c>
       <c r="G11" s="1">
-        <v>5700.2041</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>99018.24559999999</v>
+        <v>89070.1309</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.5432</v>
+        <v>89070.1309</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.5523</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99018.24559999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0211</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.8249</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5700.2041</v>
       </c>
       <c r="F12" s="1">
         <v>503.0949</v>
       </c>
       <c r="G12" s="1">
-        <v>6203.299</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>101078.8694</v>
       </c>
       <c r="I12" s="1">
-        <v>108967.6166</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5661</v>
+        <v>101078.8694</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>98967.61659999999</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.3621</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-8967.616599999999</v>
       </c>
-      <c r="O12" s="1">
-        <v>1032.3834</v>
-      </c>
-      <c r="P12" s="1">
-        <v>111032.3834</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0185</v>
+        <v>0.0203</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>16.8446</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6203.299</v>
       </c>
       <c r="F13" s="1">
         <v>654.9508</v>
       </c>
       <c r="G13" s="1">
-        <v>6858.2498</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>114925.749</v>
+        <v>103950.5428</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>1032.3834</v>
       </c>
       <c r="J13" s="1">
-        <v>17.4972</v>
+        <v>104982.9262</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.7325</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-11032.3834</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>114925.749</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0505</v>
+        <v>-0.0549</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>16.4603</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6858.2498</v>
       </c>
       <c r="F14" s="1">
         <v>-6858.2498</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>112303.1543</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.4972</v>
+        <v>112303.1543</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0391</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>112303.1543</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>112303.1543</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>112303.1543</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.101</v>
+        <v>-0.0233</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>17.699</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>565.0037</v>
       </c>
       <c r="G2" s="1">
-        <v>565.0037</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1327</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.699</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1327</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>18.0595</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>565.0037</v>
       </c>
       <c r="F3" s="1">
         <v>551.0056</v>
       </c>
       <c r="G3" s="1">
-        <v>1116.0093</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10150.743</v>
       </c>
       <c r="I3" s="1">
-        <v>19950.8862</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.877</v>
+        <v>10150.743</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9950.886200000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6121</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9950.886200000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>49.1138</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20099.1138</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0076</v>
+        <v>0.0151</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>18.696</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1116.0093</v>
       </c>
       <c r="F4" s="1">
         <v>505.0503</v>
       </c>
       <c r="G4" s="1">
-        <v>1621.0596</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20756.7687</v>
       </c>
       <c r="I4" s="1">
-        <v>29393.3069</v>
+        <v>49.1138</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1322</v>
+        <v>20805.8824</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19393.3069</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.3774</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9442.420700000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>606.6931</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30756.9431</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0219</v>
+        <v>0.0325</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>17.8704</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1621.0596</v>
       </c>
       <c r="F5" s="1">
         <v>593.5342000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>2214.5938</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>39370.3841</v>
+        <v>28818.7116</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>606.6931</v>
       </c>
       <c r="J5" s="1">
-        <v>18.062</v>
+        <v>29425.4047</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.5064</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10606.6931</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39370.3841</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.034</v>
+        <v>-0.0448</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>17.5604</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2214.5938</v>
       </c>
       <c r="F6" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>2784.0569</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>48635.8037</v>
+        <v>38687.6248</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9594</v>
+        <v>38687.6248</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.062</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>48635.8037</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0149</v>
+        <v>-0.0187</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.4279</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2784.0569</v>
       </c>
       <c r="F7" s="1">
         <v>573.7926</v>
       </c>
       <c r="G7" s="1">
-        <v>3357.8495</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>58216.7157</v>
+        <v>48268.5866</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.8686</v>
+        <v>48268.5866</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9594</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58216.7157</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0071</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>17.5932</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3357.8495</v>
       </c>
       <c r="F8" s="1">
         <v>568.4014</v>
       </c>
       <c r="G8" s="1">
-        <v>3926.2509</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>68717.24370000001</v>
+        <v>58769.082</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8287</v>
+        <v>58769.082</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.8686</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>68717.24370000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0073</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>16.2741</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3926.2509</v>
       </c>
       <c r="F9" s="1">
         <v>614.4733</v>
       </c>
       <c r="G9" s="1">
-        <v>4540.7242</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>73512.96309999999</v>
+        <v>63564.8247</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6183</v>
+        <v>63564.8247</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.8287</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>73512.96309999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.06610000000000001</v>
+        <v>-0.0757</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>17.0497</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4540.7242</v>
       </c>
       <c r="F10" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G10" s="1">
-        <v>5127.2448</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>86964.2248</v>
+        <v>77016.13189999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.5533</v>
+        <v>77016.13189999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6183</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>86964.2248</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0413</v>
+        <v>0.0469</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>17.4616</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5127.2448</v>
       </c>
       <c r="F11" s="1">
         <v>572.6852</v>
       </c>
       <c r="G11" s="1">
-        <v>5699.93</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>99013.4844</v>
+        <v>89065.3697</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.5441</v>
+        <v>89065.3697</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.5533</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99013.4844</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0211</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.8249</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5699.93</v>
       </c>
       <c r="F12" s="1">
         <v>561.013</v>
       </c>
       <c r="G12" s="1">
-        <v>6260.943</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>111022.1715</v>
+        <v>101074.0091</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5692</v>
+        <v>101074.0091</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.5441</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>111022.1715</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0184</v>
+        <v>0.0203</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>16.8446</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6260.943</v>
       </c>
       <c r="F13" s="1">
         <v>593.6621</v>
       </c>
       <c r="G13" s="1">
-        <v>6854.6051</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>114864.6732</v>
+        <v>104916.4999</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5065</v>
+        <v>104916.4999</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.5692</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>114864.6732</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0509</v>
+        <v>-0.0554</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>16.4603</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6854.6051</v>
       </c>
       <c r="F14" s="1">
         <v>-6854.6051</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>112243.4723</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5065</v>
+        <v>112243.4723</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0476</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>112243.4723</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>112243.4723</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>112243.4723</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1011</v>
+        <v>-0.0233</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>17.699</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>565.0037</v>
       </c>
       <c r="G2" s="1">
-        <v>565.0037</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1327</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.699</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1327</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>18.0595</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>565.0037</v>
       </c>
       <c r="F3" s="1">
         <v>553.7886999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1118.7924</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10150.743</v>
       </c>
       <c r="I3" s="1">
-        <v>20001.147</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8774</v>
+        <v>10150.743</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10001.147</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.701</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10001.147</v>
       </c>
-      <c r="O3" s="1">
-        <v>-1.147</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20098.853</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0076</v>
+        <v>0.0151</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>18.696</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1118.7924</v>
       </c>
       <c r="F4" s="1">
         <v>510.3725</v>
       </c>
       <c r="G4" s="1">
-        <v>1629.1649</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20808.5312</v>
       </c>
       <c r="I4" s="1">
-        <v>29543.0709</v>
+        <v>-1.147</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1339</v>
+        <v>20807.3842</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19543.0709</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.468</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9541.9239</v>
       </c>
-      <c r="O4" s="1">
-        <v>456.9291</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30757.9291</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0219</v>
+        <v>0.0326</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>17.8704</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1629.1649</v>
       </c>
       <c r="F5" s="1">
         <v>585.1536</v>
       </c>
       <c r="G5" s="1">
-        <v>2214.3185</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>39365.4893</v>
+        <v>28962.804</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>456.9291</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0642</v>
+        <v>29419.7331</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.4143</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10456.9291</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39365.4893</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0342</v>
+        <v>-0.045</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>17.5604</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2214.3185</v>
       </c>
       <c r="F6" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>2783.7816</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>48630.9938</v>
+        <v>38682.815</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.9612</v>
+        <v>38682.815</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0642</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>48630.9938</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0149</v>
+        <v>-0.0187</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.4279</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2783.7816</v>
       </c>
       <c r="F7" s="1">
         <v>573.7926</v>
       </c>
       <c r="G7" s="1">
-        <v>3357.5742</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>58211.9422</v>
+        <v>48263.813</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.87</v>
+        <v>48263.813</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.9612</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58211.9422</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0071</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>17.5932</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3357.5742</v>
       </c>
       <c r="F8" s="1">
         <v>568.4014</v>
       </c>
       <c r="G8" s="1">
-        <v>3925.9756</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>68712.4249</v>
+        <v>58764.2631</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.83</v>
+        <v>58764.2631</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.87</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>68712.4249</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0073</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>16.2741</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>3925.9756</v>
       </c>
       <c r="F9" s="1">
         <v>614.4733</v>
       </c>
       <c r="G9" s="1">
-        <v>4540.4489</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>73508.5056</v>
+        <v>63560.3671</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6194</v>
+        <v>63560.3671</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.83</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>73508.5056</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.06610000000000001</v>
+        <v>-0.0757</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>17.0497</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4540.4489</v>
       </c>
       <c r="F10" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G10" s="1">
-        <v>5126.9695</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>86959.5549</v>
+        <v>77011.46189999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.5542</v>
+        <v>77011.46189999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6194</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>86959.5549</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0413</v>
+        <v>0.0469</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>17.4616</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5126.9695</v>
       </c>
       <c r="F11" s="1">
         <v>572.6852</v>
       </c>
       <c r="G11" s="1">
-        <v>5699.6547</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>99008.70170000001</v>
+        <v>89060.58689999999</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.5449</v>
+        <v>89060.58689999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.5542</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99008.70170000001</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0211</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.8249</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5699.6547</v>
       </c>
       <c r="F12" s="1">
         <v>561.013</v>
       </c>
       <c r="G12" s="1">
-        <v>6260.6677</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>111017.2892</v>
+        <v>101069.1268</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.57</v>
+        <v>101069.1268</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.5449</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>111017.2892</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0184</v>
+        <v>0.0203</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>16.8446</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6260.6677</v>
       </c>
       <c r="F13" s="1">
         <v>593.6621</v>
       </c>
       <c r="G13" s="1">
-        <v>6854.3297</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>114860.0594</v>
+        <v>104911.8861</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5072</v>
+        <v>104911.8861</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.57</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>114860.0594</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0509</v>
+        <v>-0.0554</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>16.4603</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6854.3297</v>
       </c>
       <c r="F14" s="1">
         <v>-6854.3297</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>112238.9638</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5072</v>
+        <v>112238.9638</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0483</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>112238.9638</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>112238.9638</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>112238.9638</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1011</v>
+        <v>-0.0233</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>17.699</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>565.0037</v>
       </c>
       <c r="G2" s="1">
-        <v>565.0037</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1327</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.699</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1327</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>18.0595</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>565.0037</v>
       </c>
       <c r="F3" s="1">
         <v>556.5718000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1121.5754</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10150.743</v>
       </c>
       <c r="I3" s="1">
-        <v>20051.4078</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.8779</v>
+        <v>10150.743</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10051.4078</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.79</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10051.4078</v>
       </c>
-      <c r="O3" s="1">
-        <v>-51.4078</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20098.5922</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0075</v>
+        <v>0.0151</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>18.696</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1121.5754</v>
       </c>
       <c r="F4" s="1">
         <v>515.7215</v>
       </c>
       <c r="G4" s="1">
-        <v>1637.297</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20860.2937</v>
       </c>
       <c r="I4" s="1">
-        <v>29693.3375</v>
+        <v>-51.4078</v>
       </c>
       <c r="J4" s="1">
-        <v>18.1356</v>
+        <v>20808.8859</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19693.3375</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.5586</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9641.929700000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>306.6625</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30758.9125</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0219</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>17.8704</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1637.297</v>
       </c>
       <c r="F5" s="1">
         <v>576.7449</v>
       </c>
       <c r="G5" s="1">
-        <v>2214.0419</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>39360.5725</v>
+        <v>29107.3743</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>306.6625</v>
       </c>
       <c r="J5" s="1">
-        <v>18.0665</v>
+        <v>29414.0368</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>18.3229</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10306.6625</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39360.5725</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0343</v>
+        <v>-0.0453</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>17.5604</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2214.0419</v>
       </c>
       <c r="F6" s="1">
         <v>569.4631000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>2783.505</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>48626.1623</v>
+        <v>38677.9834</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.963</v>
+        <v>38677.9834</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>18.0665</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>48626.1623</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0149</v>
+        <v>-0.0187</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.4279</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2783.505</v>
       </c>
       <c r="F7" s="1">
         <v>573.7926</v>
       </c>
       <c r="G7" s="1">
-        <v>3357.2976</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>58207.1471</v>
+        <v>48259.018</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.8715</v>
+        <v>48259.018</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.963</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>58207.1471</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0071</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>17.5932</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3357.2976</v>
       </c>
       <c r="F8" s="1">
         <v>568.4014</v>
       </c>
       <c r="G8" s="1">
-        <v>3925.699</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>68707.58440000001</v>
+        <v>58759.4226</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.8312</v>
+        <v>58759.4226</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.8715</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>68707.58440000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0073</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>16.2741</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>3925.699</v>
       </c>
       <c r="F9" s="1">
         <v>614.4733</v>
       </c>
       <c r="G9" s="1">
-        <v>4540.1723</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>73504.02800000001</v>
+        <v>63555.8895</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.6205</v>
+        <v>63555.8895</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.8312</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>73504.02800000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.06610000000000001</v>
+        <v>-0.0757</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>17.0497</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4540.1723</v>
       </c>
       <c r="F10" s="1">
         <v>586.5205999999999</v>
       </c>
       <c r="G10" s="1">
-        <v>5126.6929</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>86954.8639</v>
+        <v>77006.7709</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.5552</v>
+        <v>77006.7709</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.6205</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>86954.8639</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0413</v>
+        <v>0.0469</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>17.4616</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5126.6929</v>
       </c>
       <c r="F11" s="1">
         <v>572.6852</v>
       </c>
       <c r="G11" s="1">
-        <v>5699.3781</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>99003.8973</v>
+        <v>89055.78260000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.5458</v>
+        <v>89055.78260000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.5552</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99003.8973</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0211</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.8249</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5699.3781</v>
       </c>
       <c r="F12" s="1">
         <v>561.013</v>
       </c>
       <c r="G12" s="1">
-        <v>6260.3911</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>111012.3849</v>
+        <v>101064.2225</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.5708</v>
+        <v>101064.2225</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.5458</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>111012.3849</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0184</v>
+        <v>0.0203</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>16.8446</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6260.3911</v>
       </c>
       <c r="F13" s="1">
         <v>593.6621</v>
       </c>
       <c r="G13" s="1">
-        <v>6854.0531</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>114855.4248</v>
+        <v>104907.2515</v>
       </c>
       <c r="I13" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.5079</v>
+        <v>104907.2515</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.5708</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>114855.4248</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0509</v>
+        <v>-0.0554</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>16.4603</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6854.0531</v>
       </c>
       <c r="F14" s="1">
         <v>-6854.0531</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>112234.4349</v>
       </c>
       <c r="I14" s="1">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.5079</v>
+        <v>112234.4349</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.0489</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>112234.4349</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>112234.4349</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>112234.4349</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1011</v>
+        <v>-0.0233</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>16.4159</v>
@@ -4514,99 +4487,99 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.5101</v>
+        <v>16.0509</v>
       </c>
       <c r="D3" s="1">
-        <v>17.4972</v>
+        <v>16.0391</v>
       </c>
       <c r="E3" s="1">
-        <v>17.5065</v>
+        <v>16.0476</v>
       </c>
       <c r="F3" s="1">
-        <v>17.5072</v>
+        <v>16.0483</v>
       </c>
       <c r="G3" s="1">
-        <v>17.5079</v>
+        <v>16.0489</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.0641</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1571</v>
+        <v>-0.0804</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1558</v>
+        <v>-0.0789</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1565</v>
+        <v>-0.0796</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1566</v>
+        <v>-0.07969999999999999</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1567</v>
+        <v>-0.0799</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1272</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1403</v>
+        <v>0.1259</v>
       </c>
       <c r="D5" s="3">
-        <v>0.14</v>
+        <v>0.1253</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1402</v>
+        <v>0.1256</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1402</v>
+        <v>0.1257</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1402</v>
+        <v>0.1258</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.6641</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.2651</v>
+        <v>-0.8001</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.2582</v>
+        <v>-0.7923</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.2612</v>
+        <v>-0.7956</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.2618</v>
+        <v>-0.7961</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.2624</v>
+        <v>-0.7966</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.1174</v>
+        <v>-0.2575</v>
       </c>
       <c r="D7" s="3">
         <v>-0.1165</v>
@@ -4623,7 +4596,7 @@
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
